--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA191B-8DBF-47FC-B303-DA6FA19A7614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="13960" windowHeight="6240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>testname</t>
   </si>
@@ -35,16 +36,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>qalearningrepository@gmail.com</t>
-  </si>
-  <si>
-    <t>Renu@17061989</t>
+    <t>username</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,14 +86,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +134,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -205,7 +206,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -378,18 +379,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -407,7 +408,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
@@ -417,20 +418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -438,12 +439,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
